--- a/output/experiments/Multiple_model_compare/DeepAR_optuna.xlsx
+++ b/output/experiments/Multiple_model_compare/DeepAR_optuna.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\Multiple_model_compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF68DC6-CB2D-4A53-9F20-783D00028E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE84C55-E622-4CAE-8499-BC54B1D1751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3137" uniqueCount="284">
   <si>
     <t>run_bat_as_sol</t>
   </si>
@@ -724,144 +735,6 @@
     <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-by_execution-2023-10-12_001.xlsx</t>
   </si>
   <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_002.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-13_001.xlsx</t>
-  </si>
-  <si>
     <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
   </si>
   <si>
@@ -869,6 +742,147 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>OPEX_prop</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_002.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.6-0.6-unif-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.6-0.6-flex-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-05-01-06-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-5-0.0-0.6-unif-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-01-01-02-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-02-01-03-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-03-01-04-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-04-01-05-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-06-01-07-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-07-01-08-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-08-01-09-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-09-01-10-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-10-01-11-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-11-01-12-01-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-5-0.0-0.6-flex-441.6-unconscious-12-01-12-31-Sum-ALL-Sum-4-unif-GT-0.5-0.0-by_execution-2023-10-14_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -900,7 +914,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -923,13 +937,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1270,18 +1298,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL193"/>
+  <dimension ref="A1:BM193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE150" sqref="AE150"/>
+      <selection pane="bottomRight" activeCell="AV154" sqref="AV154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1474,8 +1502,11 @@
       <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BM1" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1665,8 +1696,12 @@
       <c r="BL2">
         <v>117.2815656564398</v>
       </c>
+      <c r="BM2">
+        <f>1-AR2/AF2</f>
+        <v>0.57763935272834033</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1856,8 +1891,12 @@
       <c r="BL3">
         <v>161.38248038314811</v>
       </c>
+      <c r="BM3">
+        <f t="shared" ref="BM3:BM66" si="0">1-AR3/AF3</f>
+        <v>0.54074863365622017</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2047,8 +2086,12 @@
       <c r="BL4">
         <v>136.8464503797853</v>
       </c>
+      <c r="BM4">
+        <f t="shared" si="0"/>
+        <v>0.57751080595420501</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2238,8 +2281,12 @@
       <c r="BL5">
         <v>138.78958435447879</v>
       </c>
+      <c r="BM5">
+        <f t="shared" si="0"/>
+        <v>0.56943884313402338</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2429,8 +2476,12 @@
       <c r="BL6">
         <v>164.11618409172871</v>
       </c>
+      <c r="BM6">
+        <f t="shared" si="0"/>
+        <v>0.52778588590254905</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2620,8 +2671,12 @@
       <c r="BL7">
         <v>117.56052638571209</v>
       </c>
+      <c r="BM7">
+        <f t="shared" si="0"/>
+        <v>0.54992850855703879</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2811,8 +2866,12 @@
       <c r="BL8">
         <v>141.96674996415589</v>
       </c>
+      <c r="BM8">
+        <f t="shared" si="0"/>
+        <v>0.65030993671482418</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3002,8 +3061,12 @@
       <c r="BL9">
         <v>140.32069945294009</v>
       </c>
+      <c r="BM9">
+        <f t="shared" si="0"/>
+        <v>0.59052393277947046</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3193,8 +3256,12 @@
       <c r="BL10">
         <v>149.69274599037689</v>
       </c>
+      <c r="BM10">
+        <f t="shared" si="0"/>
+        <v>0.44690708026436199</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3384,8 +3451,12 @@
       <c r="BL11">
         <v>144.2324598539156</v>
       </c>
+      <c r="BM11">
+        <f t="shared" si="0"/>
+        <v>0.46625928030855979</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3575,8 +3646,12 @@
       <c r="BL12">
         <v>156.9732582718344</v>
       </c>
+      <c r="BM12">
+        <f t="shared" si="0"/>
+        <v>0.41342555035313255</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3766,8 +3841,12 @@
       <c r="BL13">
         <v>142.58012472407731</v>
       </c>
+      <c r="BM13">
+        <f t="shared" si="0"/>
+        <v>0.53803013794907972</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3957,8 +4036,12 @@
       <c r="BL14">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM14">
+        <f t="shared" si="0"/>
+        <v>0.44669468693948322</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4148,8 +4231,12 @@
       <c r="BL15">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM15">
+        <f t="shared" si="0"/>
+        <v>0.47407443606815147</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4339,8 +4426,12 @@
       <c r="BL16">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM16">
+        <f t="shared" si="0"/>
+        <v>0.50883955769941425</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4530,8 +4621,12 @@
       <c r="BL17">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM17">
+        <f t="shared" si="0"/>
+        <v>0.52135074945977178</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4611,7 +4706,7 @@
         <v>90</v>
       </c>
       <c r="AA18" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="AB18">
         <v>226.65144623070961</v>
@@ -4721,8 +4816,12 @@
       <c r="BL18">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM18">
+        <f t="shared" si="0"/>
+        <v>0.51839349101466536</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4912,8 +5011,12 @@
       <c r="BL19">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM19">
+        <f t="shared" si="0"/>
+        <v>0.51877725661403307</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5103,8 +5206,12 @@
       <c r="BL20">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM20">
+        <f t="shared" si="0"/>
+        <v>0.59385609917343651</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5294,8 +5401,12 @@
       <c r="BL21">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM21">
+        <f t="shared" si="0"/>
+        <v>0.51524951369399763</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5485,8 +5596,12 @@
       <c r="BL22">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM22">
+        <f t="shared" si="0"/>
+        <v>0.45878529282406288</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5676,8 +5791,12 @@
       <c r="BL23">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM23">
+        <f t="shared" si="0"/>
+        <v>0.42509829822747747</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5867,8 +5986,12 @@
       <c r="BL24">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM24">
+        <f t="shared" si="0"/>
+        <v>0.40564767122582268</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6058,8 +6181,12 @@
       <c r="BL25">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM25">
+        <f t="shared" si="0"/>
+        <v>0.46080995040846751</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6249,8 +6376,12 @@
       <c r="BL26">
         <v>214.24299192726309</v>
       </c>
+      <c r="BM26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6440,8 +6571,12 @@
       <c r="BL27">
         <v>151.0231343132979</v>
       </c>
+      <c r="BM27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6631,8 +6766,12 @@
       <c r="BL28">
         <v>174.67851309277731</v>
       </c>
+      <c r="BM28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6822,8 +6961,12 @@
       <c r="BL29">
         <v>198.88266587272969</v>
       </c>
+      <c r="BM29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7013,8 +7156,12 @@
       <c r="BL30">
         <v>143.4969423561561</v>
       </c>
+      <c r="BM30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7204,8 +7351,12 @@
       <c r="BL31">
         <v>154.72535901087559</v>
       </c>
+      <c r="BM31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7395,8 +7546,12 @@
       <c r="BL32">
         <v>157.31090918686289</v>
       </c>
+      <c r="BM32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7586,8 +7741,12 @@
       <c r="BL33">
         <v>133.83925144570671</v>
       </c>
+      <c r="BM33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7777,8 +7936,12 @@
       <c r="BL34">
         <v>213.36567174581569</v>
       </c>
+      <c r="BM34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7968,8 +8131,12 @@
       <c r="BL35">
         <v>174.02844968171121</v>
       </c>
+      <c r="BM35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8159,8 +8326,12 @@
       <c r="BL36">
         <v>215.21162358243589</v>
       </c>
+      <c r="BM36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8350,8 +8521,12 @@
       <c r="BL37">
         <v>144.4834513123607</v>
       </c>
+      <c r="BM37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8541,8 +8716,12 @@
       <c r="BL38">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8732,8 +8911,12 @@
       <c r="BL39">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8923,8 +9106,12 @@
       <c r="BL40">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9114,8 +9301,12 @@
       <c r="BL41">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9305,8 +9496,12 @@
       <c r="BL42">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -9496,8 +9691,12 @@
       <c r="BL43">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -9687,8 +9886,12 @@
       <c r="BL44">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -9878,8 +10081,12 @@
       <c r="BL45">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10069,8 +10276,12 @@
       <c r="BL46">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10260,8 +10471,12 @@
       <c r="BL47">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10451,8 +10666,12 @@
       <c r="BL48">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10642,8 +10861,12 @@
       <c r="BL49">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10833,8 +11056,12 @@
       <c r="BL50">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM50">
+        <f t="shared" si="0"/>
+        <v>0.5873884606808728</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -11024,8 +11251,12 @@
       <c r="BL51">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM51">
+        <f t="shared" si="0"/>
+        <v>0.58545702131673738</v>
+      </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -11215,8 +11446,12 @@
       <c r="BL52">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM52">
+        <f t="shared" si="0"/>
+        <v>0.62739799616893854</v>
+      </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -11406,8 +11641,12 @@
       <c r="BL53">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM53">
+        <f t="shared" si="0"/>
+        <v>0.60683927326551435</v>
+      </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -11597,8 +11836,12 @@
       <c r="BL54">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM54">
+        <f t="shared" si="0"/>
+        <v>0.598739172184371</v>
+      </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -11788,8 +12031,12 @@
       <c r="BL55">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM55">
+        <f t="shared" si="0"/>
+        <v>0.61557395265057235</v>
+      </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -11979,8 +12226,12 @@
       <c r="BL56">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM56">
+        <f t="shared" si="0"/>
+        <v>0.70669901268752122</v>
+      </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -12170,8 +12421,12 @@
       <c r="BL57">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM57">
+        <f t="shared" si="0"/>
+        <v>0.64262399764165579</v>
+      </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -12361,8 +12616,12 @@
       <c r="BL58">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM58">
+        <f t="shared" si="0"/>
+        <v>0.54116494462941445</v>
+      </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -12552,8 +12811,12 @@
       <c r="BL59">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM59">
+        <f t="shared" si="0"/>
+        <v>0.51942757337935086</v>
+      </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -12743,8 +13006,12 @@
       <c r="BL60">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM60">
+        <f t="shared" si="0"/>
+        <v>0.47863122122118607</v>
+      </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -12934,8 +13201,12 @@
       <c r="BL61">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM61">
+        <f t="shared" si="0"/>
+        <v>0.58705661895129224</v>
+      </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -13125,8 +13396,12 @@
       <c r="BL62">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM62">
+        <f t="shared" si="0"/>
+        <v>0.44694696212461549</v>
+      </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -13316,8 +13591,12 @@
       <c r="BL63">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM63">
+        <f t="shared" si="0"/>
+        <v>0.47429988574191417</v>
+      </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -13507,8 +13786,12 @@
       <c r="BL64">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM64">
+        <f t="shared" si="0"/>
+        <v>0.5278472265231281</v>
+      </c>
     </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -13698,8 +13981,12 @@
       <c r="BL65">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM65">
+        <f t="shared" si="0"/>
+        <v>0.52230053325032733</v>
+      </c>
     </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -13889,8 +14176,12 @@
       <c r="BL66">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM66">
+        <f t="shared" si="0"/>
+        <v>0.52094007304803092</v>
+      </c>
     </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -14080,8 +14371,12 @@
       <c r="BL67">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM67">
+        <f t="shared" ref="BM67:BM130" si="1">1-AR67/AF67</f>
+        <v>0.52200321248624371</v>
+      </c>
     </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -14271,8 +14566,12 @@
       <c r="BL68">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM68">
+        <f t="shared" si="1"/>
+        <v>0.65247729436490398</v>
+      </c>
     </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -14462,8 +14761,12 @@
       <c r="BL69">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM69">
+        <f t="shared" si="1"/>
+        <v>0.59246954725751433</v>
+      </c>
     </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -14653,8 +14956,12 @@
       <c r="BL70">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM70">
+        <f t="shared" si="1"/>
+        <v>0.55469711971059055</v>
+      </c>
     </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -14844,8 +15151,12 @@
       <c r="BL71">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM71">
+        <f t="shared" si="1"/>
+        <v>0.47508379957203883</v>
+      </c>
     </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -15035,8 +15346,12 @@
       <c r="BL72">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM72">
+        <f t="shared" si="1"/>
+        <v>0.43442729814998593</v>
+      </c>
     </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -15226,8 +15541,12 @@
       <c r="BL73">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM73">
+        <f t="shared" si="1"/>
+        <v>0.46658314293511549</v>
+      </c>
     </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -15417,8 +15736,12 @@
       <c r="BL74">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -15608,8 +15931,12 @@
       <c r="BL75">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -15799,8 +16126,12 @@
       <c r="BL76">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -15990,8 +16321,12 @@
       <c r="BL77">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -16181,8 +16516,12 @@
       <c r="BL78">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -16372,8 +16711,12 @@
       <c r="BL79">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -16563,8 +16906,12 @@
       <c r="BL80">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -16754,8 +17101,12 @@
       <c r="BL81">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -16945,8 +17296,12 @@
       <c r="BL82">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -17136,8 +17491,12 @@
       <c r="BL83">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -17327,8 +17686,12 @@
       <c r="BL84">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -17518,8 +17881,12 @@
       <c r="BL85">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -17709,8 +18076,12 @@
       <c r="BL86">
         <v>19.898338930879479</v>
       </c>
+      <c r="BM86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -17900,8 +18271,12 @@
       <c r="BL87">
         <v>11.8256551740528</v>
       </c>
+      <c r="BM87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -18091,8 +18466,12 @@
       <c r="BL88">
         <v>20.899343217872239</v>
       </c>
+      <c r="BM88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -18282,8 +18661,12 @@
       <c r="BL89">
         <v>11.33437522622474</v>
       </c>
+      <c r="BM89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -18473,8 +18856,12 @@
       <c r="BL90">
         <v>42.107349636991273</v>
       </c>
+      <c r="BM90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -18664,8 +19051,12 @@
       <c r="BL91">
         <v>28.329305700053169</v>
       </c>
+      <c r="BM91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -18855,8 +19246,12 @@
       <c r="BL92">
         <v>48.273616814269801</v>
       </c>
+      <c r="BM92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -19046,8 +19441,12 @@
       <c r="BL93">
         <v>37.654190305541213</v>
       </c>
+      <c r="BM93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -19237,8 +19636,12 @@
       <c r="BL94">
         <v>48.389807036232042</v>
       </c>
+      <c r="BM94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -19428,8 +19831,12 @@
       <c r="BL95">
         <v>39.884635205965942</v>
       </c>
+      <c r="BM95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -19619,8 +20026,12 @@
       <c r="BL96">
         <v>61.79050905195129</v>
       </c>
+      <c r="BM96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -19810,8 +20221,12 @@
       <c r="BL97">
         <v>15.98132899221212</v>
       </c>
+      <c r="BM97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -20001,8 +20416,12 @@
       <c r="BL98">
         <v>0</v>
       </c>
+      <c r="BM98">
+        <f t="shared" si="1"/>
+        <v>0.27729886235589263</v>
+      </c>
     </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -20192,8 +20611,12 @@
       <c r="BL99">
         <v>0</v>
       </c>
+      <c r="BM99">
+        <f t="shared" si="1"/>
+        <v>0.26792431873906442</v>
+      </c>
     </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -20383,8 +20806,12 @@
       <c r="BL100">
         <v>0</v>
       </c>
+      <c r="BM100">
+        <f t="shared" si="1"/>
+        <v>0.29035837687073018</v>
+      </c>
     </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -20574,8 +21001,12 @@
       <c r="BL101">
         <v>0</v>
       </c>
+      <c r="BM101">
+        <f t="shared" si="1"/>
+        <v>0.30514352931970246</v>
+      </c>
     </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -20765,8 +21196,12 @@
       <c r="BL102">
         <v>0</v>
       </c>
+      <c r="BM102">
+        <f t="shared" si="1"/>
+        <v>0.29311913747909735</v>
+      </c>
     </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -20956,8 +21391,12 @@
       <c r="BL103">
         <v>0</v>
       </c>
+      <c r="BM103">
+        <f t="shared" si="1"/>
+        <v>0.35275110448695002</v>
+      </c>
     </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -21147,8 +21586,12 @@
       <c r="BL104">
         <v>0</v>
       </c>
+      <c r="BM104">
+        <f t="shared" si="1"/>
+        <v>0.33723555336190514</v>
+      </c>
     </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -21338,8 +21781,12 @@
       <c r="BL105">
         <v>0</v>
       </c>
+      <c r="BM105">
+        <f t="shared" si="1"/>
+        <v>0.3102954397064559</v>
+      </c>
     </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -21529,8 +21976,12 @@
       <c r="BL106">
         <v>0</v>
       </c>
+      <c r="BM106">
+        <f t="shared" si="1"/>
+        <v>0.32917193320643479</v>
+      </c>
     </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -21720,8 +22171,12 @@
       <c r="BL107">
         <v>0</v>
       </c>
+      <c r="BM107">
+        <f t="shared" si="1"/>
+        <v>0.24423628399482689</v>
+      </c>
     </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -21911,8 +22366,12 @@
       <c r="BL108">
         <v>0</v>
       </c>
+      <c r="BM108">
+        <f t="shared" si="1"/>
+        <v>0.26554852896326453</v>
+      </c>
     </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -22102,8 +22561,12 @@
       <c r="BL109">
         <v>0</v>
       </c>
+      <c r="BM109">
+        <f t="shared" si="1"/>
+        <v>0.30232232846366369</v>
+      </c>
     </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -22293,8 +22756,12 @@
       <c r="BL110">
         <v>0</v>
       </c>
+      <c r="BM110">
+        <f t="shared" si="1"/>
+        <v>0.28684604913820078</v>
+      </c>
     </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -22484,8 +22951,12 @@
       <c r="BL111">
         <v>0</v>
       </c>
+      <c r="BM111">
+        <f t="shared" si="1"/>
+        <v>0.29312480455521828</v>
+      </c>
     </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -22675,8 +23146,12 @@
       <c r="BL112">
         <v>0</v>
       </c>
+      <c r="BM112">
+        <f t="shared" si="1"/>
+        <v>0.31735900970175346</v>
+      </c>
     </row>
-    <row r="113" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -22866,8 +23341,12 @@
       <c r="BL113">
         <v>0</v>
       </c>
+      <c r="BM113">
+        <f t="shared" si="1"/>
+        <v>0.295923247428171</v>
+      </c>
     </row>
-    <row r="114" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -23057,8 +23536,12 @@
       <c r="BL114">
         <v>0</v>
       </c>
+      <c r="BM114">
+        <f t="shared" si="1"/>
+        <v>0.28815373728750571</v>
+      </c>
     </row>
-    <row r="115" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -23248,8 +23731,12 @@
       <c r="BL115">
         <v>0</v>
       </c>
+      <c r="BM115">
+        <f t="shared" si="1"/>
+        <v>0.33515790379137189</v>
+      </c>
     </row>
-    <row r="116" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -23439,8 +23926,12 @@
       <c r="BL116">
         <v>0</v>
       </c>
+      <c r="BM116">
+        <f t="shared" si="1"/>
+        <v>0.32496814994710899</v>
+      </c>
     </row>
-    <row r="117" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -23630,8 +24121,12 @@
       <c r="BL117">
         <v>0</v>
       </c>
+      <c r="BM117">
+        <f t="shared" si="1"/>
+        <v>0.31519164248646647</v>
+      </c>
     </row>
-    <row r="118" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -23821,8 +24316,12 @@
       <c r="BL118">
         <v>0</v>
       </c>
+      <c r="BM118">
+        <f t="shared" si="1"/>
+        <v>0.33976874275788671</v>
+      </c>
     </row>
-    <row r="119" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -24012,8 +24511,12 @@
       <c r="BL119">
         <v>0</v>
       </c>
+      <c r="BM119">
+        <f t="shared" si="1"/>
+        <v>0.24186150892850045</v>
+      </c>
     </row>
-    <row r="120" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -24203,8 +24706,12 @@
       <c r="BL120">
         <v>0</v>
       </c>
+      <c r="BM120">
+        <f t="shared" si="1"/>
+        <v>0.27408536656823668</v>
+      </c>
     </row>
-    <row r="121" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -24394,8 +24901,12 @@
       <c r="BL121">
         <v>0</v>
       </c>
+      <c r="BM121">
+        <f t="shared" si="1"/>
+        <v>0.33112458071638562</v>
+      </c>
     </row>
-    <row r="122" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -24585,8 +25096,12 @@
       <c r="BL122">
         <v>0</v>
       </c>
+      <c r="BM122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="123" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -24776,8 +25291,12 @@
       <c r="BL123">
         <v>0</v>
       </c>
+      <c r="BM123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="124" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -24967,8 +25486,12 @@
       <c r="BL124">
         <v>0</v>
       </c>
+      <c r="BM124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="125" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -25158,8 +25681,12 @@
       <c r="BL125">
         <v>0</v>
       </c>
+      <c r="BM125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="126" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -25349,8 +25876,12 @@
       <c r="BL126">
         <v>0</v>
       </c>
+      <c r="BM126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="127" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -25540,8 +26071,12 @@
       <c r="BL127">
         <v>0</v>
       </c>
+      <c r="BM127">
+        <f t="shared" si="1"/>
+        <v>-1.9415769747925804E-3</v>
+      </c>
     </row>
-    <row r="128" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -25731,8 +26266,12 @@
       <c r="BL128">
         <v>0</v>
       </c>
+      <c r="BM128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="129" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -25922,8 +26461,12 @@
       <c r="BL129">
         <v>0</v>
       </c>
+      <c r="BM129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="130" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -26113,8 +26656,12 @@
       <c r="BL130">
         <v>0</v>
       </c>
+      <c r="BM130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -26304,8 +26851,12 @@
       <c r="BL131">
         <v>0</v>
       </c>
+      <c r="BM131">
+        <f t="shared" ref="BM131:BM193" si="2">1-AR131/AF131</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -26495,8 +27046,12 @@
       <c r="BL132">
         <v>0</v>
       </c>
+      <c r="BM132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -26686,8 +27241,12 @@
       <c r="BL133">
         <v>0</v>
       </c>
+      <c r="BM133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -26877,8 +27436,12 @@
       <c r="BL134">
         <v>0</v>
       </c>
+      <c r="BM134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -27068,8 +27631,12 @@
       <c r="BL135">
         <v>0</v>
       </c>
+      <c r="BM135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -27259,8 +27826,12 @@
       <c r="BL136">
         <v>0</v>
       </c>
+      <c r="BM136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -27450,8 +28021,12 @@
       <c r="BL137">
         <v>0</v>
       </c>
+      <c r="BM137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -27641,8 +28216,12 @@
       <c r="BL138">
         <v>0</v>
       </c>
+      <c r="BM138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -27832,8 +28411,12 @@
       <c r="BL139">
         <v>0</v>
       </c>
+      <c r="BM139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="140" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -28023,8 +28606,12 @@
       <c r="BL140">
         <v>0</v>
       </c>
+      <c r="BM140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="141" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -28214,8 +28801,12 @@
       <c r="BL141">
         <v>0</v>
       </c>
+      <c r="BM141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="142" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -28405,8 +28996,12 @@
       <c r="BL142">
         <v>0</v>
       </c>
+      <c r="BM142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="143" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -28596,8 +29191,12 @@
       <c r="BL143">
         <v>0</v>
       </c>
+      <c r="BM143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="144" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -28787,8 +29386,12 @@
       <c r="BL144">
         <v>0</v>
       </c>
+      <c r="BM144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -28978,8 +29581,12 @@
       <c r="BL145">
         <v>0</v>
       </c>
+      <c r="BM145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="146" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -29059,7 +29666,7 @@
         <v>90</v>
       </c>
       <c r="AA146" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB146">
         <v>144.98337188921869</v>
@@ -29169,8 +29776,12 @@
       <c r="BL146">
         <v>0</v>
       </c>
+      <c r="BM146">
+        <f t="shared" si="2"/>
+        <v>0.22506358876330912</v>
+      </c>
     </row>
-    <row r="147" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -29250,7 +29861,7 @@
         <v>90</v>
       </c>
       <c r="AA147" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AB147">
         <v>124.94158733449881</v>
@@ -29360,8 +29971,12 @@
       <c r="BL147">
         <v>0</v>
       </c>
+      <c r="BM147">
+        <f t="shared" si="2"/>
+        <v>0.23445016445758704</v>
+      </c>
     </row>
-    <row r="148" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -29441,7 +30056,7 @@
         <v>90</v>
       </c>
       <c r="AA148" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AB148">
         <v>145.10812500678</v>
@@ -29551,8 +30166,12 @@
       <c r="BL148">
         <v>0</v>
       </c>
+      <c r="BM148">
+        <f t="shared" si="2"/>
+        <v>0.28235025973531125</v>
+      </c>
     </row>
-    <row r="149" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -29632,7 +30251,7 @@
         <v>90</v>
       </c>
       <c r="AA149" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AB149">
         <v>138.9866685625166</v>
@@ -29742,8 +30361,12 @@
       <c r="BL149">
         <v>0</v>
       </c>
+      <c r="BM149">
+        <f t="shared" si="2"/>
+        <v>0.29708358947694202</v>
+      </c>
     </row>
-    <row r="150" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -29823,7 +30446,7 @@
         <v>90</v>
       </c>
       <c r="AA150" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AB150">
         <v>147.45949292276049</v>
@@ -29933,8 +30556,12 @@
       <c r="BL150">
         <v>0</v>
       </c>
+      <c r="BM150">
+        <f t="shared" si="2"/>
+        <v>0.27964638044105206</v>
+      </c>
     </row>
-    <row r="151" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -30014,7 +30641,7 @@
         <v>90</v>
       </c>
       <c r="AA151" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AB151">
         <v>141.77465813513851</v>
@@ -30124,8 +30751,12 @@
       <c r="BL151">
         <v>0</v>
       </c>
+      <c r="BM151">
+        <f t="shared" si="2"/>
+        <v>0.27768782329607156</v>
+      </c>
     </row>
-    <row r="152" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -30205,7 +30836,7 @@
         <v>90</v>
       </c>
       <c r="AA152" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AB152">
         <v>151.36392650194469</v>
@@ -30315,8 +30946,12 @@
       <c r="BL152">
         <v>0</v>
       </c>
+      <c r="BM152">
+        <f t="shared" si="2"/>
+        <v>0.37709337290760059</v>
+      </c>
     </row>
-    <row r="153" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -30396,7 +31031,7 @@
         <v>90</v>
       </c>
       <c r="AA153" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB153">
         <v>151.91445596795529</v>
@@ -30506,8 +31141,12 @@
       <c r="BL153">
         <v>0</v>
       </c>
+      <c r="BM153">
+        <f t="shared" si="2"/>
+        <v>0.34892671219510452</v>
+      </c>
     </row>
-    <row r="154" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -30587,7 +31226,7 @@
         <v>90</v>
       </c>
       <c r="AA154" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AB154">
         <v>150.9000245779753</v>
@@ -30697,8 +31336,12 @@
       <c r="BL154">
         <v>0</v>
       </c>
+      <c r="BM154">
+        <f t="shared" si="2"/>
+        <v>0.33040557170232232</v>
+      </c>
     </row>
-    <row r="155" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -30778,7 +31421,7 @@
         <v>90</v>
       </c>
       <c r="AA155" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AB155">
         <v>156.46084658615291</v>
@@ -30888,8 +31531,12 @@
       <c r="BL155">
         <v>0</v>
       </c>
+      <c r="BM155">
+        <f t="shared" si="2"/>
+        <v>0.2575915630325657</v>
+      </c>
     </row>
-    <row r="156" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -30969,7 +31616,7 @@
         <v>90</v>
       </c>
       <c r="AA156" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AB156">
         <v>150.94416893366721</v>
@@ -31079,8 +31726,12 @@
       <c r="BL156">
         <v>0</v>
       </c>
+      <c r="BM156">
+        <f t="shared" si="2"/>
+        <v>0.22989190980580976</v>
+      </c>
     </row>
-    <row r="157" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -31160,7 +31811,7 @@
         <v>90</v>
       </c>
       <c r="AA157" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AB157">
         <v>177.56430792529139</v>
@@ -31270,8 +31921,12 @@
       <c r="BL157">
         <v>0</v>
       </c>
+      <c r="BM157">
+        <f t="shared" si="2"/>
+        <v>0.24259370833714333</v>
+      </c>
     </row>
-    <row r="158" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -31351,7 +32006,7 @@
         <v>90</v>
       </c>
       <c r="AA158" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AB158">
         <v>281.4837001459673</v>
@@ -31461,8 +32116,12 @@
       <c r="BL158">
         <v>0</v>
       </c>
+      <c r="BM158">
+        <f t="shared" si="2"/>
+        <v>0.29228810524120163</v>
+      </c>
     </row>
-    <row r="159" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -31542,7 +32201,7 @@
         <v>90</v>
       </c>
       <c r="AA159" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AB159">
         <v>192.6056143678725</v>
@@ -31652,8 +32311,12 @@
       <c r="BL159">
         <v>0</v>
       </c>
+      <c r="BM159">
+        <f t="shared" si="2"/>
+        <v>0.30781611447734114</v>
+      </c>
     </row>
-    <row r="160" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -31733,7 +32396,7 @@
         <v>90</v>
       </c>
       <c r="AA160" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AB160">
         <v>228.73501777090129</v>
@@ -31843,8 +32506,12 @@
       <c r="BL160">
         <v>0</v>
       </c>
+      <c r="BM160">
+        <f t="shared" si="2"/>
+        <v>0.33142551474278459</v>
+      </c>
     </row>
-    <row r="161" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -31924,7 +32591,7 @@
         <v>90</v>
       </c>
       <c r="AA161" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AB161">
         <v>226.15603599417949</v>
@@ -32034,8 +32701,12 @@
       <c r="BL161">
         <v>0</v>
       </c>
+      <c r="BM161">
+        <f t="shared" si="2"/>
+        <v>0.30537071491796275</v>
+      </c>
     </row>
-    <row r="162" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -32115,7 +32786,7 @@
         <v>90</v>
       </c>
       <c r="AA162" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="AB162">
         <v>252.0363067379221</v>
@@ -32225,8 +32896,12 @@
       <c r="BL162">
         <v>0</v>
       </c>
+      <c r="BM162">
+        <f t="shared" si="2"/>
+        <v>0.33926588840922733</v>
+      </c>
     </row>
-    <row r="163" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -32306,7 +32981,7 @@
         <v>90</v>
       </c>
       <c r="AA163" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AB163">
         <v>228.58482195995751</v>
@@ -32416,8 +33091,12 @@
       <c r="BL163">
         <v>0</v>
       </c>
+      <c r="BM163">
+        <f t="shared" si="2"/>
+        <v>0.33507078285776015</v>
+      </c>
     </row>
-    <row r="164" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -32497,7 +33176,7 @@
         <v>90</v>
       </c>
       <c r="AA164" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AB164">
         <v>297.86178008653218</v>
@@ -32607,8 +33286,12 @@
       <c r="BL164">
         <v>0</v>
       </c>
+      <c r="BM164">
+        <f t="shared" si="2"/>
+        <v>0.34347401616074102</v>
+      </c>
     </row>
-    <row r="165" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -32688,7 +33371,7 @@
         <v>90</v>
       </c>
       <c r="AA165" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AB165">
         <v>241.5960933165625</v>
@@ -32798,8 +33481,12 @@
       <c r="BL165">
         <v>0</v>
       </c>
+      <c r="BM165">
+        <f t="shared" si="2"/>
+        <v>0.31344032118825849</v>
+      </c>
     </row>
-    <row r="166" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -32879,7 +33566,7 @@
         <v>90</v>
       </c>
       <c r="AA166" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AB166">
         <v>256.41798382624978</v>
@@ -32989,8 +33676,12 @@
       <c r="BL166">
         <v>0</v>
       </c>
+      <c r="BM166">
+        <f t="shared" si="2"/>
+        <v>0.36892638391711696</v>
+      </c>
     </row>
-    <row r="167" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -33070,7 +33761,7 @@
         <v>90</v>
       </c>
       <c r="AA167" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AB167">
         <v>301.03665065113461</v>
@@ -33180,8 +33871,12 @@
       <c r="BL167">
         <v>0</v>
       </c>
+      <c r="BM167">
+        <f t="shared" si="2"/>
+        <v>0.25076863501289259</v>
+      </c>
     </row>
-    <row r="168" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -33261,7 +33956,7 @@
         <v>90</v>
       </c>
       <c r="AA168" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AB168">
         <v>232.37685045320541</v>
@@ -33371,8 +34066,12 @@
       <c r="BL168">
         <v>0</v>
       </c>
+      <c r="BM168">
+        <f t="shared" si="2"/>
+        <v>0.27754084968496795</v>
+      </c>
     </row>
-    <row r="169" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -33452,7 +34151,7 @@
         <v>90</v>
       </c>
       <c r="AA169" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AB169">
         <v>250.54984530992809</v>
@@ -33562,8 +34261,12 @@
       <c r="BL169">
         <v>0</v>
       </c>
+      <c r="BM169">
+        <f t="shared" si="2"/>
+        <v>0.32115924085664027</v>
+      </c>
     </row>
-    <row r="170" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -33643,7 +34346,7 @@
         <v>90</v>
       </c>
       <c r="AA170" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AB170">
         <v>194.0887623205781</v>
@@ -33753,8 +34456,12 @@
       <c r="BL170">
         <v>0</v>
       </c>
+      <c r="BM170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="171" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -33834,7 +34541,7 @@
         <v>90</v>
       </c>
       <c r="AA171" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AB171">
         <v>167.0772326756269</v>
@@ -33944,8 +34651,12 @@
       <c r="BL171">
         <v>0</v>
       </c>
+      <c r="BM171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="172" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -34025,7 +34736,7 @@
         <v>90</v>
       </c>
       <c r="AA172" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AB172">
         <v>182.36184214055541</v>
@@ -34135,8 +34846,12 @@
       <c r="BL172">
         <v>0</v>
       </c>
+      <c r="BM172">
+        <f t="shared" si="2"/>
+        <v>-7.1235272651515302E-4</v>
+      </c>
     </row>
-    <row r="173" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -34216,7 +34931,7 @@
         <v>90</v>
       </c>
       <c r="AA173" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AB173">
         <v>177.0515554687008</v>
@@ -34326,8 +35041,12 @@
       <c r="BL173">
         <v>0</v>
       </c>
+      <c r="BM173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="174" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -34407,7 +35126,7 @@
         <v>90</v>
       </c>
       <c r="AA174" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AB174">
         <v>267.06417088676238</v>
@@ -34517,8 +35236,12 @@
       <c r="BL174">
         <v>0</v>
       </c>
+      <c r="BM174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="175" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -34598,7 +35321,7 @@
         <v>90</v>
       </c>
       <c r="AA175" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AB175">
         <v>242.18537809047851</v>
@@ -34708,8 +35431,12 @@
       <c r="BL175">
         <v>0</v>
       </c>
+      <c r="BM175">
+        <f t="shared" si="2"/>
+        <v>-5.429514283876502E-3</v>
+      </c>
     </row>
-    <row r="176" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -34789,7 +35516,7 @@
         <v>90</v>
       </c>
       <c r="AA176" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AB176">
         <v>193.81099590845409</v>
@@ -34899,8 +35626,12 @@
       <c r="BL176">
         <v>0</v>
       </c>
+      <c r="BM176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="177" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -34980,7 +35711,7 @@
         <v>90</v>
       </c>
       <c r="AA177" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AB177">
         <v>270.38172724656761</v>
@@ -35090,8 +35821,12 @@
       <c r="BL177">
         <v>0</v>
       </c>
+      <c r="BM177">
+        <f t="shared" si="2"/>
+        <v>-2.079527390763003E-3</v>
+      </c>
     </row>
-    <row r="178" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -35171,7 +35906,7 @@
         <v>90</v>
       </c>
       <c r="AA178" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AB178">
         <v>218.94791520945731</v>
@@ -35281,8 +36016,12 @@
       <c r="BL178">
         <v>0</v>
       </c>
+      <c r="BM178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="179" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -35362,7 +36101,7 @@
         <v>90</v>
       </c>
       <c r="AA179" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AB179">
         <v>201.85796196665609</v>
@@ -35472,8 +36211,12 @@
       <c r="BL179">
         <v>0</v>
       </c>
+      <c r="BM179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="180" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -35553,7 +36296,7 @@
         <v>90</v>
       </c>
       <c r="AA180" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AB180">
         <v>252.70761929731819</v>
@@ -35663,8 +36406,12 @@
       <c r="BL180">
         <v>0</v>
       </c>
+      <c r="BM180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -35744,7 +36491,7 @@
         <v>90</v>
       </c>
       <c r="AA181" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AB181">
         <v>168.784413870424</v>
@@ -35854,8 +36601,12 @@
       <c r="BL181">
         <v>0</v>
       </c>
+      <c r="BM181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="182" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -35935,7 +36686,7 @@
         <v>90</v>
       </c>
       <c r="AA182" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AB182">
         <v>242.99230492301291</v>
@@ -36045,8 +36796,12 @@
       <c r="BL182">
         <v>0</v>
       </c>
+      <c r="BM182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="183" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -36126,7 +36881,7 @@
         <v>90</v>
       </c>
       <c r="AA183" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AB183">
         <v>238.57020654622471</v>
@@ -36236,8 +36991,12 @@
       <c r="BL183">
         <v>0</v>
       </c>
+      <c r="BM183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="184" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -36317,7 +37076,7 @@
         <v>90</v>
       </c>
       <c r="AA184" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AB184">
         <v>259.08200131636107</v>
@@ -36427,8 +37186,12 @@
       <c r="BL184">
         <v>0</v>
       </c>
+      <c r="BM184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="185" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -36508,7 +37271,7 @@
         <v>90</v>
       </c>
       <c r="AA185" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AB185">
         <v>228.07448533829299</v>
@@ -36618,8 +37381,12 @@
       <c r="BL185">
         <v>0</v>
       </c>
+      <c r="BM185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="186" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -36699,7 +37466,7 @@
         <v>90</v>
       </c>
       <c r="AA186" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="AB186">
         <v>265.48511601332581</v>
@@ -36809,8 +37576,12 @@
       <c r="BL186">
         <v>0</v>
       </c>
+      <c r="BM186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="187" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -36890,7 +37661,7 @@
         <v>90</v>
       </c>
       <c r="AA187" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AB187">
         <v>237.71338823437691</v>
@@ -37000,8 +37771,12 @@
       <c r="BL187">
         <v>0</v>
       </c>
+      <c r="BM187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="188" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -37081,7 +37856,7 @@
         <v>90</v>
       </c>
       <c r="AA188" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AB188">
         <v>252.57077425625181</v>
@@ -37191,8 +37966,12 @@
       <c r="BL188">
         <v>0</v>
       </c>
+      <c r="BM188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="189" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -37272,7 +38051,7 @@
         <v>90</v>
       </c>
       <c r="AA189" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AB189">
         <v>255.17412587068969</v>
@@ -37382,8 +38161,12 @@
       <c r="BL189">
         <v>0</v>
       </c>
+      <c r="BM189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="190" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -37463,7 +38246,7 @@
         <v>90</v>
       </c>
       <c r="AA190" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AB190">
         <v>288.74798028357333</v>
@@ -37573,8 +38356,12 @@
       <c r="BL190">
         <v>0</v>
       </c>
+      <c r="BM190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -37654,7 +38441,7 @@
         <v>90</v>
       </c>
       <c r="AA191" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AB191">
         <v>250.48036689311269</v>
@@ -37764,8 +38551,12 @@
       <c r="BL191">
         <v>0</v>
       </c>
+      <c r="BM191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="192" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -37845,7 +38636,7 @@
         <v>90</v>
       </c>
       <c r="AA192" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AB192">
         <v>239.7083078939468</v>
@@ -37955,8 +38746,12 @@
       <c r="BL192">
         <v>0</v>
       </c>
+      <c r="BM192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:64" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:65" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -38036,7 +38831,7 @@
         <v>90</v>
       </c>
       <c r="AA193" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AB193">
         <v>244.67208339553329</v>
@@ -38144,6 +38939,10 @@
         <v>0</v>
       </c>
       <c r="BL193">
+        <v>0</v>
+      </c>
+      <c r="BM193">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
